--- a/moban.xlsx
+++ b/moban.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>用户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,18 +490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD933"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="9.5" style="1"/>
+    <col min="1" max="6" width="9.5" style="1"/>
+    <col min="7" max="7" width="11.796875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="9.5" style="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="17" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,9 +546,12 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
